--- a/data/trans_bre/P54_A_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-11,03%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>173,19%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-8,79; 5,4</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 6,0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-53,35; 55,65</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,04; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>642,81%</t>
         </is>
       </c>
     </row>
@@ -722,22 +722,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 13,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 6,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,88; 100,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>155,31%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-5,04; 9,31</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-9,16; 0,74</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 4,26</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-22,58; 62,36</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,71; 956,15</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,58%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>5,15; 17,33</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 1,01</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 3,18</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30,01; 169,77</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,2; 632,97</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,81%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,05%</t>
         </is>
       </c>
     </row>
@@ -962,22 +962,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 12,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 0,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; -0,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,21; 96,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,01%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1042,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,06; 6,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 1,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,3; 263,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,36%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 7,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 1,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 2,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,66; 55,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,3; 341,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,46; 278,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_3_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,145 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,25</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-11,03%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>173,19%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.411074330147402</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.442809094719022</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.1103382048925239</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>1.866463852978378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,79; 5,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 6,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-53,35; 55,65</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-84,04; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.789707267216718</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="n">
+        <v>-0.6569357742515276</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.5335419359726019</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.7878914875486323</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.395660882024774</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="n">
+        <v>6.46887715002472</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5565105173954555</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,69</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>31,82%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>642,81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,67; 13,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,83</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 6,08</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-19,88; 100,64</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.686277975072337</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6623042163417313</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.10823074511115</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3181995491990317</v>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>6.441673741697493</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>10,67%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-67,33%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>155,31%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.67060640759956</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.7806877960853502</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1987728557764559</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,04; 9,31</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,16; 0,74</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 4,26</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-22,58; 62,36</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-33,71; 956,15</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.34900915072523</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.281740916810875</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.137826874091626</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.006393967492427</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,239 +757,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,36</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>84,56%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-6,27%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>70,58%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.973984804793524</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.313668673659944</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.057305373571902</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1066739836632478</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.6673369748726131</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.702287076703126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5,15; 17,33</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 1,01</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 3,18</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>30,01; 169,77</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-65,2; 632,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-5.036146314903793</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.647150197366664</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.05468600566080042</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2258092458102448</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.3029615776128047</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.306880444192473</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.6608557271849035</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.324500751357859</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.6235814672501176</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>10.21109867607526</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>30,81%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-46,66%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-82,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 12,53</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 0,89</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,0; -0,08</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-15,21; 96,38</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>11.35931181771755</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.05786415182898628</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.9366651099213373</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.8456497879022347</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.08548720213116062</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.7838592256166227</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>41,98%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>73,01%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>5.152863991738502</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.45216712093174</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.879951937589612</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.3000539137394016</v>
+      </c>
+      <c r="G14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.6468889285872315</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 6,71</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,26</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 1,76</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-40,3; 263,12</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17.32868162660019</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9494332791855533</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.266766721827398</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.697676291574068</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>6.578276577190447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1082,77 +913,229 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>28,55%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>13,96%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>103,36%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>4.80228065267844</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.3772374929795723</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.556473342251378</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.3080679743567713</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.4683644656323669</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.8121556128743767</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 7,13</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 1,21</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 2,05</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,66; 55,15</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-86,3; 341,58</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>10,46; 278,63</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-2.315856324763909</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.726607168382452</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.864685752309795</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.1520697822295605</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.52626317267598</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.8765564638346286</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-0.01892045655621549</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.9637543143058906</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
+      <c r="H18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>2.135339991819752</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1.374561516440366</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.3753319711618046</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.4198258514246623</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.7240316369501293</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-3.06483917943036</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-1.16799915327489</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.4029808587667473</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>6.711422027932365</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>6.613401378663954</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>2.062286617391905</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>2.631186105177648</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.10886392081547</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0273706066155224</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.222174117448005</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.2854655183514968</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.04242443396616435</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.109381453810232</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.9537947342536192</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.9945665610257065</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.2989734142274753</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.05656569537540688</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.8600240673628615</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.1280215692100618</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.132861501383397</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.9197112404864671</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.122578221914494</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.5514980367271534</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>3.704439111239825</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>2.881118622741715</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1161,15 +1144,15 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
